--- a/data/trans_dic/P23_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3322724956567544</v>
+        <v>0.334503129042415</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3146275269013264</v>
+        <v>0.3107643304988448</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2632654661440497</v>
+        <v>0.2675045658480551</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1156171488732905</v>
+        <v>0.116716299957448</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1304668778904562</v>
+        <v>0.1307194457105242</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1184623380663552</v>
+        <v>0.1180346977617691</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2191336885447642</v>
+        <v>0.2165330136942425</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2126309280375748</v>
+        <v>0.2129035164915332</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1881519859761012</v>
+        <v>0.1883306300214639</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3935839809477411</v>
+        <v>0.3938812667473319</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3773571005540853</v>
+        <v>0.3761488293698579</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3333336034198301</v>
+        <v>0.3373652822004595</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.155052061988201</v>
+        <v>0.1535668947574857</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1678583594042795</v>
+        <v>0.1699294663210751</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.162163865432056</v>
+        <v>0.1618122596304441</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.252368321203395</v>
+        <v>0.2526297736117041</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.249515078438391</v>
+        <v>0.2500951814996518</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2256443426869069</v>
+        <v>0.2262677580712395</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4587092268102449</v>
+        <v>0.4597281399246272</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4116671353569911</v>
+        <v>0.4138430262507289</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3704572195398246</v>
+        <v>0.3702056125647469</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3209283806678322</v>
+        <v>0.3207490904471221</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.339124419390986</v>
+        <v>0.3401457665069071</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3125502240936204</v>
+        <v>0.3095648238142461</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3996087356417563</v>
+        <v>0.3997496229752329</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3842616297969241</v>
+        <v>0.3851493288037371</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.347890786049898</v>
+        <v>0.3495188335402213</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5097264436091524</v>
+        <v>0.5085753946827399</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4585821692797387</v>
+        <v>0.4599065002515096</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4137531416309085</v>
+        <v>0.4127119835888096</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3686290149565539</v>
+        <v>0.3705990624474927</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3861681048341894</v>
+        <v>0.387762580361718</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3552710715097211</v>
+        <v>0.3542461404408117</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.433123525408923</v>
+        <v>0.4332663025836487</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.417365226833242</v>
+        <v>0.4178410929505524</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.378353980691399</v>
+        <v>0.3805069638663031</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3108781809487007</v>
+        <v>0.3107433267868888</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.288573650271652</v>
+        <v>0.284830034326397</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2149054609250168</v>
+        <v>0.2151330307409061</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2518860319657983</v>
+        <v>0.2498609327679494</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2575847102129435</v>
+        <v>0.2608269297861412</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1856571458141608</v>
+        <v>0.1819408415783612</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2946096024957473</v>
+        <v>0.2916933864173176</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2880175541397539</v>
+        <v>0.2897533886864877</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2130948371551287</v>
+        <v>0.2157936850971304</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3963833566239001</v>
+        <v>0.391307553967616</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.383070986985568</v>
+        <v>0.3873951388064198</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2930428831037338</v>
+        <v>0.2947203751416046</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3372231425948609</v>
+        <v>0.3317925682004406</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3500161391580057</v>
+        <v>0.3525042056343883</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2619313108900431</v>
+        <v>0.2567043476042792</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3527948893836095</v>
+        <v>0.3516011409370794</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3524859477108734</v>
+        <v>0.3541821932117037</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2641141411263199</v>
+        <v>0.2646186823161529</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4045878954716592</v>
+        <v>0.4060834222805361</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3785147325817723</v>
+        <v>0.3780376995817583</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3341145442297906</v>
+        <v>0.3331563523639821</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2404247837439934</v>
+        <v>0.2401481971050369</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2593010949818823</v>
+        <v>0.2598514700749103</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2464932685893428</v>
+        <v>0.2467635587259837</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3259054693271328</v>
+        <v>0.3269168435941037</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3230840789063664</v>
+        <v>0.3210250559604064</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2940405372513535</v>
+        <v>0.293508750144461</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.440038013342917</v>
+        <v>0.4391859405449984</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4110071167012907</v>
+        <v>0.4122805192429763</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.365669306156764</v>
+        <v>0.366138161138386</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.269910911952388</v>
+        <v>0.2716658587610183</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2895006044198621</v>
+        <v>0.2918687684120099</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.275800214180074</v>
+        <v>0.274764262800389</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3507953464992103</v>
+        <v>0.3500966841717661</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3453055926899311</v>
+        <v>0.3453121012162383</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3165000190204387</v>
+        <v>0.3157730115930352</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>342467</v>
+        <v>344766</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>306650</v>
+        <v>302884</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>198366</v>
+        <v>201560</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>152050</v>
+        <v>153495</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>174538</v>
+        <v>174876</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>117546</v>
+        <v>117122</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>514042</v>
+        <v>507942</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>491696</v>
+        <v>492327</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>328466</v>
+        <v>328778</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>405660</v>
+        <v>405966</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>367788</v>
+        <v>366611</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>251161</v>
+        <v>254199</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>203911</v>
+        <v>201958</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>224560</v>
+        <v>227331</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>160910</v>
+        <v>160561</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>592004</v>
+        <v>592617</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>576989</v>
+        <v>578330</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>393918</v>
+        <v>395006</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>776784</v>
+        <v>778510</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>808073</v>
+        <v>812344</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>769212</v>
+        <v>768689</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>509529</v>
+        <v>509245</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>595442</v>
+        <v>597235</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>620782</v>
+        <v>614853</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1311151</v>
+        <v>1311613</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1428972</v>
+        <v>1432273</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1413330</v>
+        <v>1419944</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>863177</v>
+        <v>861228</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>900164</v>
+        <v>902763</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>859111</v>
+        <v>856949</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>585262</v>
+        <v>588390</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>678042</v>
+        <v>680842</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>705634</v>
+        <v>703598</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1421116</v>
+        <v>1421584</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1552076</v>
+        <v>1553846</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1537089</v>
+        <v>1545835</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>171421</v>
+        <v>171346</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>138856</v>
+        <v>137055</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>117298</v>
+        <v>117423</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>120002</v>
+        <v>119037</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>118136</v>
+        <v>119623</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>101780</v>
+        <v>99742</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>302806</v>
+        <v>299808</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>270683</v>
+        <v>272314</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>233132</v>
+        <v>236084</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>218569</v>
+        <v>215770</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>184326</v>
+        <v>186407</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>159947</v>
+        <v>160863</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>160657</v>
+        <v>158070</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>160528</v>
+        <v>161669</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>143594</v>
+        <v>140729</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>362610</v>
+        <v>361383</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>331271</v>
+        <v>332865</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>288948</v>
+        <v>289500</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1325228</v>
+        <v>1330127</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1294048</v>
+        <v>1292417</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1127864</v>
+        <v>1124630</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>812443</v>
+        <v>811508</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>921102</v>
+        <v>923057</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>869298</v>
+        <v>870252</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2168802</v>
+        <v>2175533</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2252219</v>
+        <v>2237866</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2029569</v>
+        <v>2025898</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1441345</v>
+        <v>1438554</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1405131</v>
+        <v>1409485</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1234383</v>
+        <v>1235966</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>912082</v>
+        <v>918012</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1028378</v>
+        <v>1036790</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>972654</v>
+        <v>969001</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>2334437</v>
+        <v>2329788</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>2407125</v>
+        <v>2407171</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>2184592</v>
+        <v>2179574</v>
       </c>
     </row>
     <row r="20">
